--- a/v4/example/xlsx/Skill.xlsx
+++ b/v4/example/xlsx/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940"/>
+    <workbookView windowWidth="16005" windowHeight="10275"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
     <t>string</t>
   </si>
   <si>
-    <t>MakeIndex;</t>
+    <t>MakeIndex</t>
   </si>
   <si>
     <t>描述</t>
@@ -728,7 +728,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -739,9 +739,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1078,7 +1075,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1192,7 +1189,7 @@
       <c r="E4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -1201,112 +1198,112 @@
       <c r="H4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>1101</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>1000</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>1102</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>2000</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/v4/example/xlsx/Skill.xlsx
+++ b/v4/example/xlsx/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16005" windowHeight="10275"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
@@ -1075,7 +1075,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1215,14 +1215,26 @@
       <c r="C5" s="5">
         <v>1000</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="D5" s="5">
+        <v>7000</v>
+      </c>
+      <c r="E5" s="5">
+        <v>100</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5">
+        <v>8000</v>
+      </c>
+      <c r="H5" s="5">
+        <v>200</v>
+      </c>
+      <c r="I5" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="5">
         <v>1102</v>
       </c>
@@ -1232,8 +1244,24 @@
       <c r="C6" s="5">
         <v>2000</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="D6" s="5">
+        <v>9000</v>
+      </c>
+      <c r="E6" s="5">
+        <v>400</v>
+      </c>
+      <c r="F6" s="5">
+        <v>5</v>
+      </c>
+      <c r="G6" s="5">
+        <v>7000</v>
+      </c>
+      <c r="H6" s="5">
+        <v>300</v>
+      </c>
+      <c r="I6" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="5"/>

--- a/v4/example/xlsx/Skill.xlsx
+++ b/v4/example/xlsx/Skill.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>Id</t>
   </si>
@@ -49,6 +49,12 @@
     <t>string</t>
   </si>
   <si>
+    <t>SkillCondition</t>
+  </si>
+  <si>
+    <t>SkillEffect</t>
+  </si>
+  <si>
     <t>MakeIndex</t>
   </si>
   <si>
@@ -79,7 +85,25 @@
     <t>技能1</t>
   </si>
   <si>
+    <t>Begin</t>
+  </si>
+  <si>
+    <t>AddBuff</t>
+  </si>
+  <si>
+    <t>Tick</t>
+  </si>
+  <si>
+    <t>DoDamage</t>
+  </si>
+  <si>
     <t>技能2</t>
+  </si>
+  <si>
+    <t>DoHeal</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
 </sst>
 </file>
@@ -1075,7 +1099,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1134,19 +1158,19 @@
         <v>9</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>9</v>
@@ -1158,7 +1182,7 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1178,28 +1202,28 @@
         <v>0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
@@ -1210,28 +1234,28 @@
         <v>1101</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C5" s="5">
         <v>1000</v>
       </c>
-      <c r="D5" s="5">
-        <v>7000</v>
-      </c>
-      <c r="E5" s="5">
+      <c r="D5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1001</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="5">
         <v>100</v>
-      </c>
-      <c r="F5" s="5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="5">
-        <v>8000</v>
-      </c>
-      <c r="H5" s="5">
-        <v>200</v>
-      </c>
-      <c r="I5" s="5">
-        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1239,29 +1263,27 @@
         <v>1102</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C6" s="5">
         <v>2000</v>
       </c>
-      <c r="D6" s="5">
-        <v>9000</v>
-      </c>
-      <c r="E6" s="5">
-        <v>400</v>
+      <c r="D6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="F6" s="5">
-        <v>5</v>
-      </c>
-      <c r="G6" s="5">
-        <v>7000</v>
-      </c>
-      <c r="H6" s="5">
-        <v>300</v>
-      </c>
-      <c r="I6" s="5">
-        <v>3</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="5"/>
